--- a/Results_14.4KM.xlsx
+++ b/Results_14.4KM.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,12 +562,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3579-T</t>
+          <t>1221-T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Đại An Runners</t>
+          <t>THAM GIA CHO BIẾT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -587,69 +587,69 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A0000008</t>
+          <t>A0000029</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:45:14:665</t>
+          <t>13:35:46:139</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15:55:56:894</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:06:42:084</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16:17:04:383</t>
+          <t>14:06:51:825</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16:27:20:673</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:10:42.229</t>
+          <t>00:11:20.165</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>00:21:27.419</t>
+          <t>00:21:35.986</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>00:31:49.718</t>
+          <t>00:31:05.686</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>00:42:20.673</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>00:42:06.008</t>
+          <t>00:46:39.347</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7799-T</t>
+          <t>3333-T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHƯỢT TẾT</t>
+          <t>Hưu Trí</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -669,69 +669,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A0000022</t>
+          <t>A0000018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:45:18:052</t>
+          <t>13:35:46:078</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:56:06:019</t>
+          <t>13:47:06:305</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:06:47:348</t>
+          <t>13:57:24:215</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16:17:11:676</t>
+          <t>14:06:53:092</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16:27:26:696</t>
+          <t>14:22:25:524</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:10:47.967</t>
+          <t>00:11:20.227</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:21:29.296</t>
+          <t>00:21:38.137</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>00:31:53.624</t>
+          <t>00:31:07.014</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>00:42:26.696</t>
+          <t>00:47:25.524</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:42:08.644</t>
+          <t>00:46:39.446</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5555-T</t>
+          <t>2552-T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mã Dell Thành Công</t>
+          <t>Slow &amp; Furious</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -751,69 +751,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A0000033</t>
+          <t>A0000013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:45:07:950</t>
+          <t>13:35:44:983</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15:55:59:645</t>
+          <t>13:46:16:066</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:06:41:448</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:17:04:288</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:24:635</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>00:10:51.695</t>
+          <t>00:10:31.083</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:21:33.498</t>
+          <t>00:19:48.868</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:31:56.338</t>
+          <t>00:31:06.222</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:24.635</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:42:11.345</t>
+          <t>00:46:39.652</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1234-T</t>
+          <t>1881-T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Người dân 1</t>
+          <t>Thần Cồn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -833,69 +833,69 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A0000003</t>
+          <t>A0000006</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:45:10:356</t>
+          <t>13:35:44:939</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15:55:56:091</t>
+          <t>13:46:10:288</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:06:42:084</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16:17:04:914</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>16:27:22:245</t>
+          <t>14:22:24:714</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:10:45.735</t>
+          <t>00:10:25.349</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:21:31.728</t>
+          <t>00:19:48.495</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>00:31:54.558</t>
+          <t>00:31:06.266</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>00:42:22.245</t>
+          <t>00:47:24.714</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:42:11.889</t>
+          <t>00:46:39.775</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9999-T</t>
+          <t>7777-T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIDV</t>
+          <t>Người dân 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -915,69 +915,69 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A0000034</t>
+          <t>A0000014</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:45:07:091</t>
+          <t>13:35:44:523</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:46:15:325</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:06:41:448</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:53:256</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:25:604</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:10:48.636</t>
+          <t>00:10:30.802</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:21:34.357</t>
+          <t>00:19:48.911</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>00:31:57.977</t>
+          <t>00:31:08.733</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:25.604</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:42:12.204</t>
+          <t>00:46:41.081</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6666-T</t>
+          <t>1111-T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vui là Chính</t>
+          <t>Liên Cấp Runners</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -997,64 +997,64 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A0000027</t>
+          <t>A0000017</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:44:939</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15:55:56:155</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16:17:04:384</t>
+          <t>14:06:53:048</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>16:27:19:273</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:10:49.325</t>
+          <t>00:11:21.365</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:37.186</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>00:31:57.554</t>
+          <t>00:31:08.109</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>00:42:19.273</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:42:12.443</t>
+          <t>00:46:41.131</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6688-T</t>
+          <t>2345-T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1079,69 +1079,69 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A0000037</t>
+          <t>A0000008</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:55:55:728</t>
+          <t>13:47:06:793</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:19:945</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:17:04:288</t>
+          <t>14:06:52:101</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:10:48.898</t>
+          <t>00:11:23.490</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:36.642</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>00:31:57.458</t>
+          <t>00:31:08.798</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:42:12.465</t>
+          <t>00:46:41.333</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5599-T</t>
+          <t>3456-T</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hưu Trí</t>
+          <t>TRAI TÀI GÁI SẮC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1161,69 +1161,69 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A0000015</t>
+          <t>A0000026</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:45:12:262</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:56:02:270</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16:06:43:979</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16:17:05:172</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>16:27:24:748</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:10:50.008</t>
+          <t>00:10:26.513</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:21:31.717</t>
+          <t>00:19:50.548</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>00:31:52.910</t>
+          <t>00:31:07.772</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>00:42:24.748</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:42:12.486</t>
+          <t>00:46:41.333</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-T</t>
+          <t>4994-T</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YAMAHA</t>
+          <t>Bạn sợ ah?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1243,69 +1243,69 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A0000023</t>
+          <t>A0000041</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:45:06:948</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:55:56:251</t>
+          <t>13:47:07:753</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:19:943</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16:17:04:427</t>
+          <t>14:06:36:424</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:10:49.303</t>
+          <t>00:11:24.551</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:21:34.689</t>
+          <t>00:21:36.741</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>00:31:57.479</t>
+          <t>00:30:53.222</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:42:12.530</t>
+          <t>00:46:41.434</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6886-T</t>
+          <t>8765-T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thần Cồn</t>
+          <t>Mạnh Hạnh Hùng Phương</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1325,57 +1325,57 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A0000024</t>
+          <t>A0000016</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:55:55:782</t>
+          <t>13:47:06:603</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:54:547</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:25:030</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00:10:48.952</t>
+          <t>00:11:23.300</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:21:34.807</t>
+          <t>00:21:37.654</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>00:31:58.238</t>
+          <t>00:31:11.244</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:25.030</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00:42:12.648</t>
+          <t>00:46:41.727</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biết rứa không tham gia</t>
+          <t>Dệy Thỳ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1412,64 +1412,64 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15:55:56:685</t>
+          <t>13:47:08:234</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:20:380</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00:10:49.855</t>
+          <t>00:11:25.032</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:37.178</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>00:31:58.238</t>
+          <t>00:31:07.873</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>00:42:12.648</t>
+          <t>00:46:42.284</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3333-T</t>
+          <t>5432-T</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BACMATTEAM</t>
+          <t>Bước chân tự do</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1489,69 +1489,69 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A0000018</t>
+          <t>A0000031</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:45:08:469</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15:56:00:019</t>
+          <t>13:47:06:829</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16:06:53:751</t>
+          <t>13:57:20:478</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16:17:04:427</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16:27:21:701</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>00:10:51.550</t>
+          <t>00:11:23.627</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>00:21:45.282</t>
+          <t>00:21:37.276</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>00:31:55.958</t>
+          <t>00:31:08.003</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>00:42:21.701</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>00:42:13.232</t>
+          <t>00:46:42.868</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7474-T</t>
+          <t>1331-T</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Người dân 2</t>
+          <t>Biết rứa không tham gia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1571,69 +1571,69 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A0000035</t>
+          <t>A0000025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:45:09:362</t>
+          <t>13:35:40:974</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:55:56:685</t>
+          <t>13:47:05:907</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16:06:44:357</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16:17:06:770</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16:27:24:038</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:10:47.323</t>
+          <t>00:11:24.933</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>00:21:34.995</t>
+          <t>00:21:39.983</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>00:31:57.408</t>
+          <t>00:31:10.231</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>00:42:24.038</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>00:42:14.676</t>
+          <t>00:46:43.662</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8668-T</t>
+          <t>1771-T</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đô Bất Tử</t>
+          <t>Mực Nhảy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1653,69 +1653,69 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A0000012</t>
+          <t>A0000015</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:45:06:947</t>
+          <t>13:35:41:408</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:55:55:783</t>
+          <t>13:47:06:009</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16:06:42:540</t>
+          <t>13:57:21:412</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:55:378</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16:27:22:046</t>
+          <t>14:22:26:116</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:10:48.836</t>
+          <t>00:11:24.601</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>00:21:35.593</t>
+          <t>00:21:40.004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>00:31:58.121</t>
+          <t>00:31:13.970</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>00:42:22.046</t>
+          <t>00:47:26.116</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>00:42:15.099</t>
+          <t>00:46:44.708</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4444-T</t>
+          <t>2222-T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liên Cấp Runners</t>
+          <t>BACMATTEAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1735,69 +1735,69 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A0000011</t>
+          <t>A0000043</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:45:07:542</t>
+          <t>13:35:35:301</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:46:09:193</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16:06:44:357</t>
+          <t>13:55:32:888</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16:17:06:733</t>
+          <t>14:06:34:621</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16:27:24:037</t>
+          <t>14:22:20:070</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>00:10:48.185</t>
+          <t>00:10:33.892</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>00:21:36.815</t>
+          <t>00:19:57.587</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>00:31:59.191</t>
+          <t>00:30:59.320</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>00:42:24.037</t>
+          <t>00:47:20.070</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>00:42:16.495</t>
+          <t>00:46:44.769</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7777-T</t>
+          <t>3993-T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mạnh Hạnh Hùng Phương</t>
+          <t>Gió Lào</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1817,69 +1817,69 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A0000014</t>
+          <t>A0000046</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:45:13:723</t>
+          <t>13:35:40:724</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15:55:56:155</t>
+          <t>13:46:19:042</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:06:43:561</t>
+          <t>13:55:33:919</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16:17:08:016</t>
+          <t>14:06:50:714</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>16:27:31:601</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>00:10:42.432</t>
+          <t>00:10:38.318</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>00:21:29.838</t>
+          <t>00:19:53.195</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>00:31:54.293</t>
+          <t>00:31:09.990</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>00:42:31.601</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>00:42:17.878</t>
+          <t>00:46:45.346</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2233-T</t>
+          <t>6789-T</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>THAM GIA CHO BIẾT</t>
+          <t>Family Running</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1899,69 +1899,69 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A0000016</t>
+          <t>A0000020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:45:07:091</t>
+          <t>13:35:39:968</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:55:59:095</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:25:547</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16:17:05:069</t>
+          <t>14:06:53:049</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16:27:26:696</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>00:10:52.004</t>
+          <t>00:11:26.336</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>00:21:34.546</t>
+          <t>00:21:45.579</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>00:31:57.978</t>
+          <t>00:31:13.081</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>00:42:26.696</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>00:42:19.605</t>
+          <t>00:46:46.102</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6868-T</t>
+          <t>4321-T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gia đình Coca</t>
+          <t>Người dân 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1981,69 +1981,69 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A0000031</t>
+          <t>A0000022</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:45:07:092</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15:55:07:092</t>
+          <t>13:47:06:793</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:06:50:656</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>16:17:07:869</t>
+          <t>14:06:52:060</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16:27:35:663</t>
+          <t>14:22:30:583</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:10:00.000</t>
+          <t>00:11:23.591</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>00:21:43.564</t>
+          <t>00:21:37.755</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>00:32:00.777</t>
+          <t>00:31:08.858</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>00:42:35.663</t>
+          <t>00:47:30.583</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>00:42:28.571</t>
+          <t>00:46:47.381</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4554-T</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hết Hơi Nhưng Vẫn Chơi</t>
+          <t>Đông Lào</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2063,69 +2063,69 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000049</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:601</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:20:449</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:978</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:43:247</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:43.848</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:57.377</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:06.646</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:48.035</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6868-T</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>QBR73</t>
+          <t>Đại An Runners</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2145,69 +2145,69 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000007</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:493</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:673</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:789</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:33.323</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:56.768</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.180</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.789</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:48.296</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4567-T</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>QBR73</t>
+          <t>Cua Sữa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2227,69 +2227,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000037</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:256</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:47:06:829</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:825</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:11:30.573</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:21:45.869</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.569</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.230</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2468-T</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Triệu Phong</t>
+          <t>Mã đéo Thành Công</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2309,69 +2309,69 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000023</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:160</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:47:08:693</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:57:30:210</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:54:838</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:604</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:11:32.533</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:21:54.050</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:18.678</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.604</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.444</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1551-T</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gió Lào</t>
+          <t>PHƯỢT TẾT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2391,69 +2391,69 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000035</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:038</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:920</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:33.778</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:57.882</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.037</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.448</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5555-T</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Family Running</t>
+          <t>BIDV</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2473,69 +2473,69 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000033</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:36:160</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:913</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:33.753</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:57.691</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.045</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.910</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2662-T</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Đông Lào</t>
+          <t>Tia Chớp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2555,69 +2555,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:33:576</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:11:581</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:711</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:644</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:38.005</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.685</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:00.135</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.644</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.068</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6666-T</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mồ Hôi Phải Đẹp</t>
+          <t>Vui là Chính</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2637,69 +2637,69 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000027</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:33:576</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:08:594</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:50:715</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:912</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:35.018</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.858</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:17.139</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.912</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.336</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6543-T</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ngựa Phi Như Rùa</t>
+          <t>YAMAHA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2719,69 +2719,69 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000036</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:34:170</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:12:512</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:410</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:714</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:38.342</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.091</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:30:59.240</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.714</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.544</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3553-T</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LEM LEM</t>
+          <t>QBR73 - Vào 3 ra 7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2801,69 +2801,69 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000079</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:461</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:295</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:643</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:34:304</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:425</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:36.834</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.182</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.843</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.425</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.964</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3663-T</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nữ Thần</t>
+          <t>QBR73</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2883,69 +2883,69 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000056</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:33:577</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:373</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:926</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:37:295</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:35.796</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.349</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:03.718</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.059</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3883-T</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ái Tử</t>
+          <t>Triệu Phong</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2965,69 +2965,69 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000047</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:33:607</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:22:407</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:36:549</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:50:715</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:714</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:48.800</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:02.942</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:17.108</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.714</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.107</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2442-T</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tia Chớp</t>
+          <t>Ôi chà chà Sướng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3047,69 +3047,69 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000040</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:316</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:08:970</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:642</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:286</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:504</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:36.654</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.326</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:00.970</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.504</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.188</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5959-T</t>
+          <t>2992-T</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GỪNG GIÀ</t>
+          <t>Mồ Hôi Phải Đẹp</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3129,69 +3129,69 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A0000039</t>
+          <t>A0000038</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:45:47:728</t>
+          <t>13:35:32:316</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16:27:27:512</t>
+          <t>13:46:09:373</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:886</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:35:580</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:644</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:41:39.784</t>
+          <t>00:10:37.057</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.570</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:03.264</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.644</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.328</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2772-T</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ôi chà chà Sướng</t>
+          <t>Hết Hơi Nhưng Vẫn Chơi</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3211,69 +3211,69 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000039</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:316</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:373</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:445</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:38:273</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:645</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:37.057</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.129</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:05.957</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.645</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.329</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5665-T</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lũy Thép</t>
+          <t>ĐẠP LÚT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3293,69 +3293,69 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000051</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:001</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:08:736</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:888</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:515</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:425</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:36.735</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.887</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.514</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.425</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.424</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5678-T</t>
+          <t>5775-T</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mực Nhảy</t>
+          <t>Gần tới đích chưa bây?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3375,69 +3375,69 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A0000001</t>
+          <t>A0000055</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:001</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:08:736</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:32:887</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:286</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:425</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:36.735</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:00.886</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.285</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.425</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.424</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8899-T</t>
+          <t>2332-T</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sư Đoàn 392</t>
+          <t>Lũy Thép</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3457,64 +3457,64 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A0000010</t>
+          <t>A0000057</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16:27:23:832</t>
+          <t>13:35:32:316</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:426</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16:27:36:474</t>
+          <t>13:55:32:886</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:711</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:911</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:37.110</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>00:00:12.642</t>
+          <t>00:20:00.570</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.395</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.911</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.595</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4884-T</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3539,69 +3539,69 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000059</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:32:001</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:256</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:286</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:770</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:37.255</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:01.433</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.285</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.770</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.769</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2468-T</t>
+          <t>5885-T</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Khe Chè</t>
+          <t>Chục cơn lên non</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3621,69 +3621,69 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A0000006</t>
+          <t>A0000005</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:35:31:835</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>16:06:57:224</t>
+          <t>13:46:08:736</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>16:17:08:199</t>
+          <t>13:55:32:715</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:286</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:645</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:11:01.497</t>
+          <t>00:10:36.901</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>00:21:12.472</t>
+          <t>00:20:00.880</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.451</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.645</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:51.810</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6789-T</t>
+          <t>3773-T</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bước chân tự do</t>
+          <t>Ái Tử</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3703,69 +3703,69 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A0000020</t>
+          <t>A0000021</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:45:17:781</t>
+          <t>13:35:32:316</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16:17:07:258</t>
+          <t>13:46:14:266</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:329</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:34:621</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:635</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:31:49.477</t>
+          <t>00:10:41.950</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:01.013</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:02.305</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.635</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:52.319</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8989-T</t>
+          <t>4664-T</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mã đéo Thành Công</t>
+          <t>LEM LEM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3785,69 +3785,69 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A0000026</t>
+          <t>A0000058</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:45:44:875</t>
+          <t>13:35:32:317</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16:06:59:629</t>
+          <t>13:46:09:339</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16:17:24:742</t>
+          <t>13:55:33:330</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>16:27:29:668</t>
+          <t>14:06:34:621</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:789</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:21:14.754</t>
+          <t>00:10:37.022</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>00:31:39.867</t>
+          <t>00:20:01.013</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>00:41:44.793</t>
+          <t>00:31:02.304</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.789</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:52.472</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1111-T</t>
+          <t>8899-T</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cua Sữa</t>
+          <t>Nữ Thần</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3867,69 +3867,69 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>A0000017</t>
+          <t>A0000053</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:45:06:948</t>
+          <t>13:35:32:461</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15:55:58:456</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:06:43:979</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>16:27:28:905</t>
+          <t>14:06:33:410</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:941</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:10:51.508</t>
+          <t>00:10:37.355</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>00:21:37.031</t>
+          <t>00:20:00.973</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>00:42:21.957</t>
+          <t>00:31:00.949</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.941</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:52.480</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1122-T</t>
+          <t>5995-T</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRAI TÀI GÁI SẮC</t>
+          <t>Sáng mai dậy sớm</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3949,69 +3949,69 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A0000007</t>
+          <t>A0000050</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:45:09:179</t>
+          <t>13:35:33:438</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15:56:10:373</t>
+          <t>13:46:12:178</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16:06:55:949</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:52:060</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:11:01.194</t>
+          <t>00:10:38.740</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>00:21:46.770</t>
+          <t>00:19:59.996</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:18.622</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:52.632</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7979-T</t>
+          <t>1661-T</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mệt thì đi bộ</t>
+          <t>Sư Đoàn 392</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4031,69 +4031,69 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>A0000025</t>
+          <t>A0000012</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:45:00:000</t>
+          <t>13:35:32:461</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:520</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:52:647</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:357</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:37.059</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:20:01.390</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:20.186</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.357</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:52.896</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2525-T</t>
+          <t>1991-T</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dệy Thỳ</t>
+          <t>Đô Bất Tử</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4113,47 +4113,47 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A0000009</t>
+          <t>A0000042</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:45:18:169</t>
+          <t>13:47:05:540</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>13:57:22:126</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>14:06:51:205</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>14:22:24:714</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:16.586</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:45.665</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:35:19.174</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4170,12 +4170,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8686-T</t>
+          <t>1441-T</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CHẬM MÀ CHẤT</t>
+          <t>GỪNG GIÀ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4195,47 +4195,47 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A0000013</t>
+          <t>A0000010</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15:45:09:916</t>
+          <t>13:47:07:955</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>13:57:21:090</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>14:06:51:206</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>14:22:26:070</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:13.135</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:43.251</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:35:18.115</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4252,12 +4252,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7654-T</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Slow &amp; Furious</t>
+          <t>Khe Chè</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4277,47 +4277,47 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000024</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>13:47:07:243</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>13:57:20:957</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>14:07:00:614</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>14:22:27:036</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:13.714</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:53.371</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:35:19.793</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4334,12 +4334,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9999-T</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bạn sợ ah?</t>
+          <t>Mã Dell Thành Công</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4359,55 +4359,383 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000034</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>13:55:33:979</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>14:22:38:211</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>00:27:04.232</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5678-T</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gia đình Coca</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>A0000001</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13:46:14:915</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>14:09:32:708</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>14:22:48:867</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>00:23:17.793</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>00:36:33.952</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1234-T</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mệt thì đi bộ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A0000003</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13:35:43:202</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>13:55:33:919</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>14:06:53:048</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>14:22:38:211</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>00:19:50.717</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>00:31:09.846</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>00:46:55.009</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4444-T</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CHẬM MÀ CHẤT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A0000011</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>13:35:41:471</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>13:46:12:512</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>13:57:27:759</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>00:10:31.041</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>00:21:46.288</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2882-T</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ngựa Phi Như Rùa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A0000028</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>13:55:33:920</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>14:06:53:049</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>14:22:25:487</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>00:11:19.129</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>00:26:51.567</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
@@ -4424,7 +4752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4535,12 +4863,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3579-T</t>
+          <t>1221-T</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Đại An Runners</t>
+          <t>THAM GIA CHO BIẾT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4560,69 +4888,69 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A0000008</t>
+          <t>A0000029</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:45:14:665</t>
+          <t>13:35:46:139</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15:55:56:894</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:06:42:084</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16:17:04:383</t>
+          <t>14:06:51:825</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16:27:20:673</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:10:42.229</t>
+          <t>00:11:20.165</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>00:21:27.419</t>
+          <t>00:21:35.986</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>00:31:49.718</t>
+          <t>00:31:05.686</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>00:42:20.673</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>00:42:06.008</t>
+          <t>00:46:39.347</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7799-T</t>
+          <t>3333-T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHƯỢT TẾT</t>
+          <t>Hưu Trí</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4642,69 +4970,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A0000022</t>
+          <t>A0000018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:45:18:052</t>
+          <t>13:35:46:078</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:56:06:019</t>
+          <t>13:47:06:305</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:06:47:348</t>
+          <t>13:57:24:215</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16:17:11:676</t>
+          <t>14:06:53:092</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16:27:26:696</t>
+          <t>14:22:25:524</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:10:47.967</t>
+          <t>00:11:20.227</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:21:29.296</t>
+          <t>00:21:38.137</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>00:31:53.624</t>
+          <t>00:31:07.014</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>00:42:26.696</t>
+          <t>00:47:25.524</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>00:42:08.644</t>
+          <t>00:46:39.446</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5555-T</t>
+          <t>2552-T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mã Dell Thành Công</t>
+          <t>Slow &amp; Furious</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4724,69 +5052,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A0000033</t>
+          <t>A0000013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:45:07:950</t>
+          <t>13:35:44:983</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15:55:59:645</t>
+          <t>13:46:16:066</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:06:41:448</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:17:04:288</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:24:635</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>00:10:51.695</t>
+          <t>00:10:31.083</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:21:33.498</t>
+          <t>00:19:48.868</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:31:56.338</t>
+          <t>00:31:06.222</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:24.635</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>00:42:11.345</t>
+          <t>00:46:39.652</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1234-T</t>
+          <t>1881-T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Người dân 1</t>
+          <t>Thần Cồn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4806,69 +5134,69 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A0000003</t>
+          <t>A0000006</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:45:10:356</t>
+          <t>13:35:44:939</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15:55:56:091</t>
+          <t>13:46:10:288</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:06:42:084</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16:17:04:914</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>16:27:22:245</t>
+          <t>14:22:24:714</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:10:45.735</t>
+          <t>00:10:25.349</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:21:31.728</t>
+          <t>00:19:48.495</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>00:31:54.558</t>
+          <t>00:31:06.266</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>00:42:22.245</t>
+          <t>00:47:24.714</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>00:42:11.889</t>
+          <t>00:46:39.775</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9999-T</t>
+          <t>7777-T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIDV</t>
+          <t>Người dân 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4888,69 +5216,69 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A0000034</t>
+          <t>A0000014</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:45:07:091</t>
+          <t>13:35:44:523</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:46:15:325</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:06:41:448</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:53:256</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:25:604</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:10:48.636</t>
+          <t>00:10:30.802</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:21:34.357</t>
+          <t>00:19:48.911</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>00:31:57.977</t>
+          <t>00:31:08.733</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:25.604</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>00:42:12.204</t>
+          <t>00:46:41.081</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6666-T</t>
+          <t>1111-T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vui là Chính</t>
+          <t>Liên Cấp Runners</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4970,64 +5298,64 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A0000027</t>
+          <t>A0000017</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:44:939</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15:55:56:155</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16:17:04:384</t>
+          <t>14:06:53:048</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>16:27:19:273</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:10:49.325</t>
+          <t>00:11:21.365</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:37.186</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>00:31:57.554</t>
+          <t>00:31:08.109</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>00:42:19.273</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>00:42:12.443</t>
+          <t>00:46:41.131</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6688-T</t>
+          <t>2345-T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5052,69 +5380,69 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A0000037</t>
+          <t>A0000008</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:55:55:728</t>
+          <t>13:47:06:793</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:19:945</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:17:04:288</t>
+          <t>14:06:52:101</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>16:27:19:295</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:10:48.898</t>
+          <t>00:11:23.490</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:36.642</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>00:31:57.458</t>
+          <t>00:31:08.798</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>00:42:19.295</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00:42:12.465</t>
+          <t>00:46:41.333</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5599-T</t>
+          <t>3456-T</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hưu Trí</t>
+          <t>TRAI TÀI GÁI SẮC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5134,69 +5462,69 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A0000015</t>
+          <t>A0000026</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:45:12:262</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:56:02:270</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16:06:43:979</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16:17:05:172</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>16:27:24:748</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:10:50.008</t>
+          <t>00:10:26.513</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:21:31.717</t>
+          <t>00:19:50.548</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>00:31:52.910</t>
+          <t>00:31:07.772</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>00:42:24.748</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00:42:12.486</t>
+          <t>00:46:41.333</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-T</t>
+          <t>4994-T</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YAMAHA</t>
+          <t>Bạn sợ ah?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5216,69 +5544,69 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A0000023</t>
+          <t>A0000041</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:45:06:948</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:55:56:251</t>
+          <t>13:47:07:753</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:19:943</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16:17:04:427</t>
+          <t>14:06:36:424</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:10:49.303</t>
+          <t>00:11:24.551</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:21:34.689</t>
+          <t>00:21:36.741</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>00:31:57.479</t>
+          <t>00:30:53.222</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00:42:12.530</t>
+          <t>00:46:41.434</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6886-T</t>
+          <t>8765-T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thần Cồn</t>
+          <t>Mạnh Hạnh Hùng Phương</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5298,57 +5626,57 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A0000024</t>
+          <t>A0000016</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:303</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:55:55:782</t>
+          <t>13:47:06:603</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:54:547</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:25:030</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>00:10:48.952</t>
+          <t>00:11:23.300</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:21:34.807</t>
+          <t>00:21:37.654</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>00:31:58.238</t>
+          <t>00:31:11.244</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:25.030</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00:42:12.648</t>
+          <t>00:46:41.727</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5688,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biết rứa không tham gia</t>
+          <t>Dệy Thỳ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5385,64 +5713,64 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:45:06:830</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15:55:56:685</t>
+          <t>13:47:08:234</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:06:41:520</t>
+          <t>13:57:20:380</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16:27:19:478</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>00:10:49.855</t>
+          <t>00:11:25.032</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>00:21:34.690</t>
+          <t>00:21:37.178</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>00:31:58.238</t>
+          <t>00:31:07.873</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>00:42:19.478</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>00:42:12.648</t>
+          <t>00:46:42.284</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3333-T</t>
+          <t>5432-T</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BACMATTEAM</t>
+          <t>Bước chân tự do</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5462,69 +5790,69 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A0000018</t>
+          <t>A0000031</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:45:08:469</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15:56:00:019</t>
+          <t>13:47:06:829</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16:06:53:751</t>
+          <t>13:57:20:478</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16:17:04:427</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16:27:21:701</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>00:10:51.550</t>
+          <t>00:11:23.627</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>00:21:45.282</t>
+          <t>00:21:37.276</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>00:31:55.958</t>
+          <t>00:31:08.003</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>00:42:21.701</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>00:42:13.232</t>
+          <t>00:46:42.868</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7474-T</t>
+          <t>1331-T</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Người dân 2</t>
+          <t>Biết rứa không tham gia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5544,69 +5872,69 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A0000035</t>
+          <t>A0000025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:45:09:362</t>
+          <t>13:35:40:974</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:55:56:685</t>
+          <t>13:47:05:907</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16:06:44:357</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16:17:06:770</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16:27:24:038</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:10:47.323</t>
+          <t>00:11:24.933</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>00:21:34.995</t>
+          <t>00:21:39.983</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>00:31:57.408</t>
+          <t>00:31:10.231</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>00:42:24.038</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>00:42:14.676</t>
+          <t>00:46:43.662</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8668-T</t>
+          <t>1771-T</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đô Bất Tử</t>
+          <t>Mực Nhảy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5626,69 +5954,69 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A0000012</t>
+          <t>A0000015</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:45:06:947</t>
+          <t>13:35:41:408</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:55:55:783</t>
+          <t>13:47:06:009</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16:06:42:540</t>
+          <t>13:57:21:412</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16:17:05:068</t>
+          <t>14:06:55:378</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16:27:22:046</t>
+          <t>14:22:26:116</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:10:48.836</t>
+          <t>00:11:24.601</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>00:21:35.593</t>
+          <t>00:21:40.004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>00:31:58.121</t>
+          <t>00:31:13.970</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>00:42:22.046</t>
+          <t>00:47:26.116</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>00:42:15.099</t>
+          <t>00:46:44.708</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4444-T</t>
+          <t>2222-T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liên Cấp Runners</t>
+          <t>BACMATTEAM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5708,69 +6036,69 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A0000011</t>
+          <t>A0000043</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:45:07:542</t>
+          <t>13:35:35:301</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:46:09:193</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16:06:44:357</t>
+          <t>13:55:32:888</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16:17:06:733</t>
+          <t>14:06:34:621</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16:27:24:037</t>
+          <t>14:22:20:070</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>00:10:48.185</t>
+          <t>00:10:33.892</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>00:21:36.815</t>
+          <t>00:19:57.587</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>00:31:59.191</t>
+          <t>00:30:59.320</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>00:42:24.037</t>
+          <t>00:47:20.070</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>00:42:16.495</t>
+          <t>00:46:44.769</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7777-T</t>
+          <t>3993-T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mạnh Hạnh Hùng Phương</t>
+          <t>Gió Lào</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5790,69 +6118,69 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A0000014</t>
+          <t>A0000046</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:45:13:723</t>
+          <t>13:35:40:724</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15:55:56:155</t>
+          <t>13:46:19:042</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:06:43:561</t>
+          <t>13:55:33:919</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16:17:08:016</t>
+          <t>14:06:50:714</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>16:27:31:601</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>00:10:42.432</t>
+          <t>00:10:38.318</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>00:21:29.838</t>
+          <t>00:19:53.195</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>00:31:54.293</t>
+          <t>00:31:09.990</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>00:42:31.601</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>00:42:17.878</t>
+          <t>00:46:45.346</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2233-T</t>
+          <t>6789-T</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>THAM GIA CHO BIẾT</t>
+          <t>Family Running</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5872,69 +6200,69 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A0000016</t>
+          <t>A0000020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:45:07:091</t>
+          <t>13:35:39:968</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:55:59:095</t>
+          <t>13:47:06:304</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16:06:41:637</t>
+          <t>13:57:25:547</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16:17:05:069</t>
+          <t>14:06:53:049</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16:27:26:696</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>00:10:52.004</t>
+          <t>00:11:26.336</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>00:21:34.546</t>
+          <t>00:21:45.579</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>00:31:57.978</t>
+          <t>00:31:13.081</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>00:42:26.696</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>00:42:19.605</t>
+          <t>00:46:46.102</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6868-T</t>
+          <t>4321-T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gia đình Coca</t>
+          <t>Người dân 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5954,69 +6282,69 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A0000031</t>
+          <t>A0000022</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:45:07:092</t>
+          <t>13:35:43:202</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15:55:07:092</t>
+          <t>13:47:06:793</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:06:50:656</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>16:17:07:869</t>
+          <t>14:06:52:060</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16:27:35:663</t>
+          <t>14:22:30:583</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:10:00.000</t>
+          <t>00:11:23.591</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>00:21:43.564</t>
+          <t>00:21:37.755</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>00:32:00.777</t>
+          <t>00:31:08.858</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>00:42:35.663</t>
+          <t>00:47:30.583</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>00:42:28.571</t>
+          <t>00:46:47.381</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8686-T</t>
+          <t>4554-T</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHẬM MÀ CHẤT</t>
+          <t>Đông Lào</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6036,69 +6364,69 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A0000013</t>
+          <t>A0000049</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:45:09:916</t>
+          <t>13:35:36:601</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:20:449</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:978</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:43:247</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:636</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:43.848</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:57.377</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:06.646</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.636</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:48.035</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2525-T</t>
+          <t>6868-T</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dệy Thỳ</t>
+          <t>Đại An Runners</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6118,69 +6446,69 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A0000009</t>
+          <t>A0000007</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:45:18:169</t>
+          <t>13:35:36:493</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:673</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:789</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:33.323</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:56.768</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.180</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.789</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:48.296</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7979-T</t>
+          <t>4567-T</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mệt thì đi bộ</t>
+          <t>Cua Sữa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6200,69 +6528,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A0000025</t>
+          <t>A0000037</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:45:00:000</t>
+          <t>13:35:36:256</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:47:06:829</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:57:22:125</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:51:825</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:11:30.573</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:21:45.869</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:15.569</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.230</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1122-T</t>
+          <t>2468-T</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRAI TÀI GÁI SẮC</t>
+          <t>Mã đéo Thành Công</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6282,69 +6610,69 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A0000007</t>
+          <t>A0000023</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:45:09:179</t>
+          <t>13:35:36:160</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15:56:10:373</t>
+          <t>13:47:08:693</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:06:55:949</t>
+          <t>13:57:30:210</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:54:838</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:604</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:11:01.194</t>
+          <t>00:11:32.533</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>00:21:46.770</t>
+          <t>00:21:54.050</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:18.678</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.604</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.444</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1111-T</t>
+          <t>1551-T</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cua Sữa</t>
+          <t>PHƯỢT TẾT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6364,69 +6692,69 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A0000017</t>
+          <t>A0000035</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:45:06:948</t>
+          <t>13:35:36:038</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15:55:58:456</t>
+          <t>13:46:09:816</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16:06:43:979</t>
+          <t>13:55:33:920</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16:27:28:905</t>
+          <t>14:06:51:075</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:25:486</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:10:51.508</t>
+          <t>00:10:33.778</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>00:21:37.031</t>
+          <t>00:19:57.882</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>00:42:21.957</t>
+          <t>00:31:15.037</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:25.486</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.448</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8989-T</t>
+          <t>5555-T</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mã đéo Thành Công</t>
+          <t>BIDV</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6446,69 +6774,69 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A0000026</t>
+          <t>A0000033</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:45:44:875</t>
+          <t>13:35:36:160</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:06:59:629</t>
+          <t>13:46:09:913</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16:17:24:742</t>
+          <t>13:55:33:851</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16:27:29:668</t>
+          <t>14:06:51:205</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:26:070</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:21:14.754</t>
+          <t>00:10:33.753</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>00:31:39.867</t>
+          <t>00:19:57.691</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>00:41:44.793</t>
+          <t>00:31:15.045</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:26.070</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:49.910</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6789-T</t>
+          <t>2662-T</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bước chân tự do</t>
+          <t>Tia Chớp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6528,69 +6856,69 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A0000020</t>
+          <t>A0000000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:45:17:781</t>
+          <t>13:35:33:576</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16:17:07:258</t>
+          <t>13:46:11:581</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:711</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:644</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:31:49.477</t>
+          <t>00:10:38.005</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.685</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:00.135</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.644</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.068</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2468-T</t>
+          <t>6666-T</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Khe Chè</t>
+          <t>Vui là Chính</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6610,65 +6938,69 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A0000006</t>
+          <t>A0000027</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:55:55:727</t>
+          <t>13:35:33:576</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:06:57:224</t>
+          <t>13:46:08:594</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:17:08:199</t>
+          <t>13:55:33:434</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:50:715</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:912</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>00:11:01.497</t>
+          <t>00:10:35.018</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>00:21:12.472</t>
+          <t>00:19:59.858</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:17.139</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.912</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.336</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6543-T</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dưỡng Sinh</t>
+          <t>YAMAHA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6688,69 +7020,69 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>00000nan</t>
+          <t>A0000036</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:35:34:170</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:12:512</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:55:33:261</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:33:410</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:24:714</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:38.342</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:59.091</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:30:59.240</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:24.714</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.544</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8899-T</t>
+          <t>3553-T</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sư Đoàn 392</t>
+          <t>QBR73 - Vào 3 ra 7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6770,69 +7102,69 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A0000010</t>
+          <t>A0000079</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16:27:23:832</t>
+          <t>13:35:32:461</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>13:46:09:295</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:27:36:474</t>
+          <t>13:55:32:643</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:06:34:304</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>14:22:23:425</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:36.834</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>00:00:12.642</t>
+          <t>00:20:00.182</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:31:01.843</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:47:23.425</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:46:50.964</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5678-T</t>
+          <t>3663-T</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mực Nhảy</t>
+          <t>QBR73</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6852,1295 +7184,1359 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A0000001</t>
+          <t>A0000056</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>13:35:33:577</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>13:46:09:373</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>13:55:32:926</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>14:06:37:295</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>14:22:24:636</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>00:10:35.796</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>00:19:59.349</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>00:31:03.718</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>00:47:24.636</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>00:46:51.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3883-T</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Triệu Phong</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>A0000047</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>13:35:33:607</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>13:46:22:407</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>13:55:36:549</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>14:06:50:715</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>14:22:24:714</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>00:10:48.800</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>00:20:02.942</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>00:31:17.108</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>00:47:24.714</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>00:46:51.107</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2442-T</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ôi chà chà Sướng</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A0000040</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>13:35:32:316</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>13:46:08:970</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>13:55:32:642</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>14:06:33:286</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14:22:23:504</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>00:10:36.654</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>00:20:00.326</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>00:31:00.970</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>00:47:23.504</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>00:46:51.188</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2992-T</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mồ Hôi Phải Đẹp</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>A0000038</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>13:35:32:316</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>13:46:09:373</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>13:55:32:886</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>14:06:35:580</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>14:22:23:644</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>00:10:37.057</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>00:20:00.570</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>00:31:03.264</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>00:47:23.644</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>00:46:51.328</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2772-T</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hết Hơi Nhưng Vẫn Chơi</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A0000039</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>13:35:32:316</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>13:46:09:373</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>13:55:32:445</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14:06:38:273</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>14:22:23:645</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>00:10:37.057</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>00:20:00.129</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>00:31:05.957</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>00:47:23.645</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>00:46:51.329</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5665-T</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ĐẠP LÚT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A0000051</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>13:35:32:001</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>13:46:08:736</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13:55:32:888</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>14:06:33:515</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>14:22:23:425</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>00:10:36.735</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>00:20:00.887</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>00:31:01.514</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>00:47:23.425</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>00:46:51.424</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5775-T</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gần tới đích chưa bây?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>A0000055</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>13:35:32:001</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>13:46:08:736</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>13:55:32:887</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>14:06:33:286</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>14:22:23:425</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00:10:36.735</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>00:20:00.886</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>00:31:01.285</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>00:47:23.425</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>00:46:51.424</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2332-T</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lũy Thép</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>A0000057</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>13:35:32:316</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>13:46:09:426</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13:55:32:886</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>14:06:33:711</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>14:22:23:911</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>00:10:37.110</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>00:20:00.570</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>00:31:01.395</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>00:47:23.911</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>00:46:51.595</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4884-T</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dưỡng Sinh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A0000059</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13:35:32:001</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>13:46:09:256</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>13:55:33:434</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>14:06:33:286</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>14:22:23:770</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>00:10:37.255</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>00:20:01.433</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>00:31:01.285</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>00:47:23.770</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>00:46:51.769</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5885-T</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chục cơn lên non</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A0000005</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>13:35:31:835</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>13:46:08:736</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>13:55:32:715</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>14:06:33:286</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14:22:23:645</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>00:10:36.901</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>00:20:00.880</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>00:31:01.451</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>00:47:23.645</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>00:46:51.810</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3773-T</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ái Tử</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>A0000021</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>13:35:32:316</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>13:46:14:266</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>13:55:33:329</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>14:06:34:621</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>14:22:24:635</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>00:10:41.950</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>00:20:01.013</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>00:31:02.305</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>00:47:24.635</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>00:46:52.319</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4664-T</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LEM LEM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A0000058</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>13:35:32:317</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>13:46:09:339</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>13:55:33:330</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>14:06:34:621</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>14:22:24:789</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>00:10:37.022</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>00:20:01.013</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>00:31:02.304</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>00:47:24.789</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>00:46:52.472</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>8899-T</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nữ Thần</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>A0000053</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>13:35:32:461</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>13:46:09:816</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>13:55:33:434</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>14:06:33:410</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>14:22:24:941</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>00:10:37.355</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>00:20:00.973</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>00:31:00.949</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>00:47:24.941</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>00:46:52.480</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5995-T</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sáng mai dậy sớm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>A0000050</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>13:35:33:438</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>13:46:12:178</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>13:55:33:434</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>14:06:52:060</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>14:22:26:070</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>00:10:38.740</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>00:19:59.996</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>00:31:18.622</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>00:47:26.070</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>00:46:52.632</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1661-T</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sư Đoàn 392</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>A0000012</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>13:35:32:461</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>13:46:09:520</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>13:55:33:851</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>14:06:52:647</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>14:22:25:357</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>00:10:37.059</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>00:20:01.390</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>00:31:20.186</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>00:47:25.357</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>00:46:52.896</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1991-T</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Đô Bất Tử</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>A0000042</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>13:47:05:540</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>13:57:22:126</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>14:06:51:205</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>14:22:24:714</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>00:10:16.586</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>00:19:45.665</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>00:35:19.174</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1441-T</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GỪNG GIÀ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A0000010</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>13:47:07:955</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>13:57:21:090</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>14:06:51:206</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>14:22:26:070</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Lũy Thép</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ôi chà chà Sướng</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Family Running</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Tia Chớp</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Ái Tử</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Nữ Thần</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LEM LEM</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ngựa Phi Như Rùa</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Mồ Hôi Phải Đẹp</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Đông Lào</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Slow &amp; Furious</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Gió Lào</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Triệu Phong</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>QBR73</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QBR73</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Hết Hơi Nhưng Vẫn Chơi</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>No result</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:10:13.135</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:19:43.251</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>No result</t>
+          <t>00:35:18.115</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -8157,12 +8553,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5959-T</t>
+          <t>7654-T</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GỪNG GIÀ</t>
+          <t>Khe Chè</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8182,133 +8578,465 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>A0000039</t>
+          <t>A0000024</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:45:47:728</t>
+          <t>13:47:07:243</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16:27:27:512</t>
+          <t>13:57:20:957</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>14:07:00:614</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>14:22:27:036</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>00:10:13.714</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>00:19:53.371</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>00:35:19.793</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>00:41:39.784</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>9999-T</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mã Dell Thành Công</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A0000034</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>13:55:33:979</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>14:22:38:211</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>00:27:04.232</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Bạn sợ ah?</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14.4KM</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>00000nan</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5678-T</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gia đình Coca</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>A0000001</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13:46:14:915</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>14:09:32:708</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>14:22:48:867</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>00:23:17.793</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>00:36:33.952</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1234-T</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mệt thì đi bộ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A0000003</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13:35:43:202</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>13:55:33:919</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>14:06:53:048</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>14:22:38:211</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>00:19:50.717</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>00:31:09.846</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>00:46:55.009</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4444-T</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CHẬM MÀ CHẤT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A0000011</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>13:35:41:471</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>13:46:12:512</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>13:57:27:759</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>00:10:31.041</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>00:21:46.288</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2882-T</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ngựa Phi Như Rùa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14.4KM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A0000028</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>13:55:33:920</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>14:06:53:049</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>14:22:25:487</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>00:11:19.129</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>00:26:51.567</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>No result</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>No result</t>
         </is>
